--- a/DormManagement/Server/download/DormTemplate.xlsx
+++ b/DormManagement/Server/download/DormTemplate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,40 +38,6 @@
   </si>
   <si>
     <t>宿舍号（保持原有宿舍编号，如E1224、5204）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2224</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1224</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,7 +389,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -446,33 +412,15 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="2">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" s="2">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>5204</v>
-      </c>
+      <c r="C2" s="3"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="2">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="C4" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="楼号仅能输入5或13或14" sqref="B1:B1048576">
       <formula1>"5,13,14"</formula1>
     </dataValidation>
   </dataValidations>

--- a/DormManagement/Server/download/DormTemplate.xlsx
+++ b/DormManagement/Server/download/DormTemplate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="462" windowWidth="25602" windowHeight="14238" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14235" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -389,15 +389,15 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.90234375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="47.94921875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.76171875" style="2"/>
+    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -419,11 +419,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="楼号仅能输入5或13或14" sqref="B1:B1048576">
-      <formula1>"5,13,14"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>